--- a/BoxOfficeReport.xlsx
+++ b/BoxOfficeReport.xlsx
@@ -420,6 +420,14 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="5" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="25" customWidth="1" min="3" max="3"/>
+    <col width="16" customWidth="1" min="4" max="4"/>
+    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="26" customWidth="1" min="6" max="6"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
